--- a/CETC/ExcelFile/deviceConfig.xlsx
+++ b/CETC/ExcelFile/deviceConfig.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B5D9DD-641B-4486-926F-3001C6319AD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>DeviceState_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,12 +58,88 @@
   </si>
   <si>
     <t>DeviceState_013</t>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +216,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -201,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,26 +313,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,23 +348,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -478,16 +523,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A5" sqref="A5:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="6" customWidth="1"/>
     <col min="2" max="14" width="16.875" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
     <col min="16" max="16" width="12.75" customWidth="1"/>
@@ -495,7 +540,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -539,8 +584,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -583,8 +628,8 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -627,8 +672,8 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -671,8 +716,8 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -715,8 +760,8 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>0</v>
@@ -759,8 +804,8 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -803,8 +848,8 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -847,8 +892,8 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>8</v>
+      <c r="A9" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>0</v>
@@ -891,8 +936,8 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A10" s="1">
-        <v>9</v>
+      <c r="A10" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -935,8 +980,8 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A11" s="1">
-        <v>10</v>
+      <c r="A11" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -979,8 +1024,8 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A12" s="1">
-        <v>11</v>
+      <c r="A12" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -1023,8 +1068,8 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A13" s="1">
-        <v>12</v>
+      <c r="A13" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
@@ -1067,8 +1112,8 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A14" s="1">
-        <v>13</v>
+      <c r="A14" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="3">
         <v>0</v>
@@ -1111,8 +1156,8 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A15" s="1">
-        <v>14</v>
+      <c r="A15" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -1155,8 +1200,8 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A16" s="1">
-        <v>15</v>
+      <c r="A16" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B16" s="3">
         <v>0</v>
@@ -1199,8 +1244,8 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A17" s="1">
-        <v>16</v>
+      <c r="A17" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
@@ -1243,8 +1288,8 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A18" s="1">
-        <v>17</v>
+      <c r="A18" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
@@ -1287,8 +1332,8 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A19" s="1">
-        <v>18</v>
+      <c r="A19" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B19" s="3">
         <v>1</v>
@@ -1331,8 +1376,8 @@
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A20" s="1">
-        <v>19</v>
+      <c r="A20" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -1375,8 +1420,8 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A21" s="1">
-        <v>20</v>
+      <c r="A21" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
@@ -1419,8 +1464,8 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A22" s="1">
-        <v>21</v>
+      <c r="A22" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B22" s="3">
         <v>0</v>
@@ -1463,8 +1508,8 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A23" s="1">
-        <v>22</v>
+      <c r="A23" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -1507,8 +1552,8 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A24" s="1">
-        <v>23</v>
+      <c r="A24" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="B24" s="3">
         <v>0</v>
@@ -1551,8 +1596,8 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A25" s="1">
-        <v>24</v>
+      <c r="A25" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B25" s="3">
         <v>0</v>
